--- a/Covid_19_Dataset_and_References/References/50.xlsx
+++ b/Covid_19_Dataset_and_References/References/50.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="80">
   <si>
     <t>Doi</t>
   </si>
@@ -253,6 +253,60 @@
   </si>
   <si>
     <t>[Karine%Kahil%NULL%1,  Mohamad Ali%Cheaito%NULL%1,  Rawad%El Hayek%NULL%1,  Marwa%Nofal%NULL%1,  Sarah%El Halabi%NULL%1,  Kundadak Ganesh%Kudva%NULL%1,  Victor%Pereira-Sanchez%NULL%1,  Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,   Poonam%Chauhan%chauhan.poonamk@gmail.com%1,   Komal%Chhikara%dimpichhikara@gmail.com%1,   Parakriti%Gupta%parakritii@gmail.com%1,   Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,   Mark D.%Griffiths%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,   Seema%Rani%NULL%1,   Shaheena%Parveen%NULL%1,   Ajay%Pal Singh%NULL%1,   Aseem%Mehra%NULL%3,   Subho%Chakrabarti%NULL%1,   Sandeep%Grover%NULL%2,   Cheering%Tandup%NULL%2,   Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,  Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,  US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,  WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,  WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,  Cheung%YT%coreGivesNoEmail%1,  Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,   David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,   Hsien-Hao%Huang%NULL%1,   Wei-Fong%Kao%NULL%1,   Lee-Min%Wang%NULL%0,   Chun-I%Huang%NULL%1,   Chen-Hsen%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,   Robert H.%Yolken%NULL%1,   Patricia%Langenberg%NULL%1,   Manana%Lapidus%NULL%1,   Timothy A.%Arling%NULL%1,   Faith B.%Dickerson%NULL%1,   Debra A.%Scrandis%NULL%1,   Emily%Severance%NULL%1,   Johanna A.%Cabassa%NULL%1,   Theodora%Balis%NULL%1,   Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,   Mohamad Ali%Cheaito%NULL%1,   Rawad%El Hayek%NULL%1,   Marwa%Nofal%NULL%1,   Sarah%El Halabi%NULL%1,   Kundadak Ganesh%Kudva%NULL%1,   Victor%Pereira-Sanchez%NULL%1,   Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,    Poonam%Chauhan%chauhan.poonamk@gmail.com%1,    Komal%Chhikara%dimpichhikara@gmail.com%1,    Parakriti%Gupta%parakritii@gmail.com%1,    Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,    Mark D.%Griffiths%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,    Seema%Rani%NULL%1,    Shaheena%Parveen%NULL%1,    Ajay%Pal Singh%NULL%1,    Aseem%Mehra%NULL%1,    Subho%Chakrabarti%NULL%1,    Sandeep%Grover%NULL%1,    Cheering%Tandup%NULL%2,    Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,   Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,   US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,   WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,   WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,   Cheung%YT%coreGivesNoEmail%1,   Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,    David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,    Hsien-Hao%Huang%NULL%1,    Wei-Fong%Kao%NULL%1,    Lee-Min%Wang%NULL%1,    Chun-I%Huang%NULL%1,    Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,    Robert H.%Yolken%NULL%1,    Patricia%Langenberg%NULL%1,    Manana%Lapidus%NULL%1,    Timothy A.%Arling%NULL%1,    Faith B.%Dickerson%NULL%1,    Debra A.%Scrandis%NULL%1,    Emily%Severance%NULL%1,    Johanna A.%Cabassa%NULL%1,    Theodora%Balis%NULL%1,    Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,    Mohamad Ali%Cheaito%NULL%1,    Rawad%El Hayek%NULL%1,    Marwa%Nofal%NULL%1,    Sarah%El Halabi%NULL%1,    Kundadak Ganesh%Kudva%NULL%1,    Victor%Pereira-Sanchez%NULL%1,    Samer%El Hayek%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -593,6 +647,9 @@
       <c r="H1" t="s">
         <v>21</v>
       </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -608,7 +665,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -618,6 +675,9 @@
       </c>
       <c r="H2" t="s">
         <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -634,7 +694,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -644,6 +704,9 @@
       </c>
       <c r="H3" t="s">
         <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -660,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -670,6 +733,9 @@
       </c>
       <c r="H4" t="s">
         <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -686,16 +752,19 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -712,16 +781,19 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -738,7 +810,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -748,6 +820,9 @@
       </c>
       <c r="H7" t="s">
         <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -775,6 +850,9 @@
       <c r="H8" t="s">
         <v>27</v>
       </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
@@ -790,7 +868,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
@@ -800,6 +878,9 @@
       </c>
       <c r="H9" t="s">
         <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -816,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>
@@ -826,6 +907,9 @@
       </c>
       <c r="H10" t="s">
         <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/50.xlsx
+++ b/Covid_19_Dataset_and_References/References/50.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="112">
   <si>
     <t>Doi</t>
   </si>
@@ -307,6 +307,102 @@
   </si>
   <si>
     <t>[Karine%Kahil%NULL%1,    Mohamad Ali%Cheaito%NULL%1,    Rawad%El Hayek%NULL%1,    Marwa%Nofal%NULL%1,    Sarah%El Halabi%NULL%1,    Kundadak Ganesh%Kudva%NULL%1,    Victor%Pereira-Sanchez%NULL%1,    Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,     Poonam%Chauhan%chauhan.poonamk@gmail.com%1,     Komal%Chhikara%dimpichhikara@gmail.com%1,     Parakriti%Gupta%parakritii@gmail.com%1,     Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,     Mark D.%Griffiths%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,     Seema%Rani%NULL%1,     Shaheena%Parveen%NULL%1,     Ajay%Pal Singh%NULL%1,     Aseem%Mehra%NULL%1,     Subho%Chakrabarti%NULL%1,     Sandeep%Grover%NULL%1,     Cheering%Tandup%NULL%2,     Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,    Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,    US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,    WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,    WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,    Cheung%YT%coreGivesNoEmail%1,    Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,     David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,     Hsien-Hao%Huang%NULL%1,     Wei-Fong%Kao%NULL%1,     Lee-Min%Wang%NULL%1,     Chun-I%Huang%NULL%1,     Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,     Robert H.%Yolken%NULL%1,     Patricia%Langenberg%NULL%1,     Manana%Lapidus%NULL%1,     Timothy A.%Arling%NULL%1,     Faith B.%Dickerson%NULL%1,     Debra A.%Scrandis%NULL%1,     Emily%Severance%NULL%1,     Johanna A.%Cabassa%NULL%1,     Theodora%Balis%NULL%1,     Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,     Mohamad Ali%Cheaito%NULL%1,     Rawad%El Hayek%NULL%1,     Marwa%Nofal%NULL%1,     Sarah%El Halabi%NULL%1,     Kundadak Ganesh%Kudva%NULL%1,     Victor%Pereira-Sanchez%NULL%1,     Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,      Poonam%Chauhan%chauhan.poonamk@gmail.com%1,      Komal%Chhikara%dimpichhikara@gmail.com%1,      Parakriti%Gupta%parakritii@gmail.com%1,      Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,      Mark D.%Griffiths%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,      Seema%Rani%NULL%1,      Shaheena%Parveen%NULL%1,      Ajay%Pal Singh%NULL%1,      Aseem%Mehra%NULL%1,      Subho%Chakrabarti%NULL%1,      Sandeep%Grover%NULL%1,      Cheering%Tandup%NULL%2,      Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,     Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,     US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,     WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,     WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,     Cheung%YT%coreGivesNoEmail%1,     Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,      David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,      Hsien-Hao%Huang%NULL%1,      Wei-Fong%Kao%NULL%1,      Lee-Min%Wang%NULL%1,      Chun-I%Huang%NULL%1,      Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,      Robert H.%Yolken%NULL%1,      Patricia%Langenberg%NULL%1,      Manana%Lapidus%NULL%1,      Timothy A.%Arling%NULL%1,      Faith B.%Dickerson%NULL%1,      Debra A.%Scrandis%NULL%1,      Emily%Severance%NULL%1,      Johanna A.%Cabassa%NULL%1,      Theodora%Balis%NULL%1,      Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,      Mohamad Ali%Cheaito%NULL%1,      Rawad%El Hayek%NULL%1,      Marwa%Nofal%NULL%1,      Sarah%El Halabi%NULL%1,      Kundadak Ganesh%Kudva%NULL%1,      Victor%Pereira-Sanchez%NULL%1,      Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,       Poonam%Chauhan%chauhan.poonamk@gmail.com%1,       Komal%Chhikara%dimpichhikara@gmail.com%1,       Parakriti%Gupta%parakritii@gmail.com%1,       Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,       Mark D.%Griffiths%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,       Seema%Rani%NULL%1,       Shaheena%Parveen%NULL%1,       Ajay%Pal Singh%NULL%1,       Aseem%Mehra%NULL%1,       Subho%Chakrabarti%NULL%1,       Sandeep%Grover%NULL%1,       Cheering%Tandup%NULL%2,       Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,      Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,      US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,      WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,      WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,      Cheung%YT%coreGivesNoEmail%1,      Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,       David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,       Hsien-Hao%Huang%NULL%1,       Wei-Fong%Kao%NULL%1,       Lee-Min%Wang%NULL%1,       Chun-I%Huang%NULL%1,       Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,       Robert H.%Yolken%NULL%1,       Patricia%Langenberg%NULL%1,       Manana%Lapidus%NULL%1,       Timothy A.%Arling%NULL%1,       Faith B.%Dickerson%NULL%1,       Debra A.%Scrandis%NULL%1,       Emily%Severance%NULL%1,       Johanna A.%Cabassa%NULL%1,       Theodora%Balis%NULL%1,       Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,       Mohamad Ali%Cheaito%NULL%1,       Rawad%El Hayek%NULL%1,       Marwa%Nofal%NULL%1,       Sarah%El Halabi%NULL%1,       Kundadak Ganesh%Kudva%NULL%1,       Victor%Pereira-Sanchez%NULL%1,       Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,        Poonam%Chauhan%chauhan.poonamk@gmail.com%1,        Komal%Chhikara%dimpichhikara@gmail.com%1,        Parakriti%Gupta%parakritii@gmail.com%1,        Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,        Mark D.%Griffiths%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,        Seema%Rani%NULL%1,        Shaheena%Parveen%NULL%1,        Ajay%Pal Singh%NULL%1,        Aseem%Mehra%NULL%1,        Subho%Chakrabarti%NULL%1,        Sandeep%Grover%NULL%1,        Cheering%Tandup%NULL%2,        Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,       Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,       US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,       WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,       WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,       Cheung%YT%coreGivesNoEmail%1,       Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,        David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,        Hsien-Hao%Huang%NULL%1,        Wei-Fong%Kao%NULL%1,        Lee-Min%Wang%NULL%1,        Chun-I%Huang%NULL%1,        Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,        Robert H.%Yolken%NULL%1,        Patricia%Langenberg%NULL%1,        Manana%Lapidus%NULL%1,        Timothy A.%Arling%NULL%1,        Faith B.%Dickerson%NULL%1,        Debra A.%Scrandis%NULL%1,        Emily%Severance%NULL%1,        Johanna A.%Cabassa%NULL%1,        Theodora%Balis%NULL%1,        Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,        Mohamad Ali%Cheaito%NULL%1,        Rawad%El Hayek%NULL%1,        Marwa%Nofal%NULL%1,        Sarah%El Halabi%NULL%1,        Kundadak Ganesh%Kudva%NULL%1,        Victor%Pereira-Sanchez%NULL%1,        Samer%El Hayek%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -665,7 +761,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -694,7 +790,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -723,7 +819,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -752,13 +848,13 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
@@ -781,13 +877,13 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
@@ -810,7 +906,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -868,7 +964,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
@@ -897,7 +993,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>

--- a/Covid_19_Dataset_and_References/References/50.xlsx
+++ b/Covid_19_Dataset_and_References/References/50.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="132">
   <si>
     <t>Doi</t>
   </si>
@@ -403,6 +403,66 @@
   </si>
   <si>
     <t>[Karine%Kahil%NULL%1,        Mohamad Ali%Cheaito%NULL%1,        Rawad%El Hayek%NULL%1,        Marwa%Nofal%NULL%1,        Sarah%El Halabi%NULL%1,        Kundadak Ganesh%Kudva%NULL%1,        Victor%Pereira-Sanchez%NULL%1,        Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,         Poonam%Chauhan%chauhan.poonamk@gmail.com%1,         Komal%Chhikara%dimpichhikara@gmail.com%1,         Parakriti%Gupta%parakritii@gmail.com%1,         Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,         Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,         Seema%Rani%NULL%1,         Shaheena%Parveen%NULL%1,         Ajay%Pal Singh%NULL%1,         Aseem%Mehra%NULL%1,         Subho%Chakrabarti%NULL%1,         Sandeep%Grover%NULL%1,         Cheering%Tandup%NULL%2,         Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,        Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,        US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,        WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,        WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,        Cheung%YT%coreGivesNoEmail%1,        Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,         David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,         Hsien-Hao%Huang%NULL%1,         Wei-Fong%Kao%NULL%1,         Lee-Min%Wang%NULL%1,         Chun-I%Huang%NULL%1,         Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Coronavirus Anxiety Scale: A brief mental health screener for COVID-19 related anxiety"</t>
+  </si>
+  <si>
+    <t>[Sherman A.%Lee%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,         Robert H.%Yolken%NULL%1,         Patricia%Langenberg%NULL%1,         Manana%Lapidus%NULL%1,         Timothy A.%Arling%NULL%1,         Faith B.%Dickerson%NULL%1,         Debra A.%Scrandis%NULL%1,         Emily%Severance%NULL%1,         Johanna A.%Cabassa%NULL%1,         Theodora%Balis%NULL%1,         Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,         Mohamad Ali%Cheaito%NULL%1,         Rawad%El Hayek%NULL%1,         Marwa%Nofal%NULL%1,         Sarah%El Halabi%NULL%1,         Kundadak Ganesh%Kudva%NULL%1,         Victor%Pereira-Sanchez%NULL%1,         Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,          Poonam%Chauhan%chauhan.poonamk@gmail.com%1,          Komal%Chhikara%dimpichhikara@gmail.com%1,          Parakriti%Gupta%parakritii@gmail.com%1,          Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,          Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,          Seema%Rani%NULL%1,          Shaheena%Parveen%NULL%1,          Ajay%Pal Singh%NULL%1,          Aseem%Mehra%NULL%1,          Subho%Chakrabarti%NULL%1,          Sandeep%Grover%NULL%1,          Cheering%Tandup%NULL%2,          Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,         Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,         US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,         WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,         WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,         Cheung%YT%coreGivesNoEmail%1,         Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,          David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,          Hsien-Hao%Huang%NULL%1,          Wei-Fong%Kao%NULL%1,          Lee-Min%Wang%NULL%1,          Chun-I%Huang%NULL%1,          Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,          Robert H.%Yolken%NULL%1,          Patricia%Langenberg%NULL%1,          Manana%Lapidus%NULL%1,          Timothy A.%Arling%NULL%1,          Faith B.%Dickerson%NULL%1,          Debra A.%Scrandis%NULL%1,          Emily%Severance%NULL%1,          Johanna A.%Cabassa%NULL%1,          Theodora%Balis%NULL%1,          Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,          Mohamad Ali%Cheaito%NULL%1,          Rawad%El Hayek%NULL%1,          Marwa%Nofal%NULL%1,          Sarah%El Halabi%NULL%1,          Kundadak Ganesh%Kudva%NULL%1,          Victor%Pereira-Sanchez%NULL%1,          Samer%El Hayek%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -761,7 +821,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -790,7 +850,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -819,7 +879,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -848,7 +908,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -877,7 +937,7 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -906,7 +966,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -929,22 +989,22 @@
         <v>43937.0</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="I8" t="s">
         <v>23</v>
@@ -964,7 +1024,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
@@ -993,7 +1053,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>

--- a/Covid_19_Dataset_and_References/References/50.xlsx
+++ b/Covid_19_Dataset_and_References/References/50.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="148">
   <si>
     <t>Doi</t>
   </si>
@@ -463,6 +463,54 @@
   </si>
   <si>
     <t>[Karine%Kahil%NULL%1,          Mohamad Ali%Cheaito%NULL%1,          Rawad%El Hayek%NULL%1,          Marwa%Nofal%NULL%1,          Sarah%El Halabi%NULL%1,          Kundadak Ganesh%Kudva%NULL%1,          Victor%Pereira-Sanchez%NULL%1,          Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,           Poonam%Chauhan%chauhan.poonamk@gmail.com%1,           Komal%Chhikara%dimpichhikara@gmail.com%1,           Parakriti%Gupta%parakritii@gmail.com%1,           Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,           Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,           Seema%Rani%NULL%1,           Shaheena%Parveen%NULL%1,           Ajay%Pal Singh%NULL%1,           Aseem%Mehra%NULL%1,           Subho%Chakrabarti%NULL%1,           Sandeep%Grover%NULL%1,           Cheering%Tandup%NULL%2,           Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,          Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,          US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,          WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,          WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,          Cheung%YT%coreGivesNoEmail%1,          Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,           David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,           Hsien-Hao%Huang%NULL%1,           Wei-Fong%Kao%NULL%1,           Lee-Min%Wang%NULL%1,           Chun-I%Huang%NULL%1,           Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,           Robert H.%Yolken%NULL%1,           Patricia%Langenberg%NULL%1,           Manana%Lapidus%NULL%1,           Timothy A.%Arling%NULL%1,           Faith B.%Dickerson%NULL%1,           Debra A.%Scrandis%NULL%1,           Emily%Severance%NULL%1,           Johanna A.%Cabassa%NULL%1,           Theodora%Balis%NULL%1,           Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,           Mohamad Ali%Cheaito%NULL%1,           Rawad%El Hayek%NULL%1,           Marwa%Nofal%NULL%1,           Sarah%El Halabi%NULL%1,           Kundadak Ganesh%Kudva%NULL%1,           Victor%Pereira-Sanchez%NULL%1,           Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,            Poonam%Chauhan%chauhan.poonamk@gmail.com%1,            Komal%Chhikara%dimpichhikara@gmail.com%1,            Parakriti%Gupta%parakritii@gmail.com%1,            Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,            Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,            Seema%Rani%NULL%1,            Shaheena%Parveen%NULL%1,            Ajay%Pal Singh%NULL%1,            Aseem%Mehra%NULL%1,            Subho%Chakrabarti%NULL%1,            Sandeep%Grover%NULL%1,            Cheering%Tandup%NULL%2,            Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,           Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,           US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,           WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,           WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,           Cheung%YT%coreGivesNoEmail%1,           Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,            David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,            Hsien-Hao%Huang%NULL%1,            Wei-Fong%Kao%NULL%1,            Lee-Min%Wang%NULL%1,            Chun-I%Huang%NULL%1,            Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,            Robert H.%Yolken%NULL%1,            Patricia%Langenberg%NULL%1,            Manana%Lapidus%NULL%1,            Timothy A.%Arling%NULL%1,            Faith B.%Dickerson%NULL%1,            Debra A.%Scrandis%NULL%1,            Emily%Severance%NULL%1,            Johanna A.%Cabassa%NULL%1,            Theodora%Balis%NULL%1,            Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,            Mohamad Ali%Cheaito%NULL%1,            Rawad%El Hayek%NULL%1,            Marwa%Nofal%NULL%1,            Sarah%El Halabi%NULL%1,            Kundadak Ganesh%Kudva%NULL%1,            Victor%Pereira-Sanchez%NULL%1,            Samer%El Hayek%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -821,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -850,7 +898,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -879,7 +927,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -908,7 +956,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -937,7 +985,7 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -966,7 +1014,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -1024,7 +1072,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
@@ -1053,7 +1101,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>

--- a/Covid_19_Dataset_and_References/References/50.xlsx
+++ b/Covid_19_Dataset_and_References/References/50.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="164">
   <si>
     <t>Doi</t>
   </si>
@@ -511,6 +511,54 @@
   </si>
   <si>
     <t>[Karine%Kahil%NULL%1,            Mohamad Ali%Cheaito%NULL%1,            Rawad%El Hayek%NULL%1,            Marwa%Nofal%NULL%1,            Sarah%El Halabi%NULL%1,            Kundadak Ganesh%Kudva%NULL%1,            Victor%Pereira-Sanchez%NULL%1,            Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,             Poonam%Chauhan%chauhan.poonamk@gmail.com%1,             Komal%Chhikara%dimpichhikara@gmail.com%1,             Parakriti%Gupta%parakritii@gmail.com%1,             Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,             Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,             Seema%Rani%NULL%1,             Shaheena%Parveen%NULL%1,             Ajay%Pal Singh%NULL%1,             Aseem%Mehra%NULL%1,             Subho%Chakrabarti%NULL%1,             Sandeep%Grover%NULL%1,             Cheering%Tandup%NULL%2,             Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,            Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,            US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,            WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,            WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,            Cheung%YT%coreGivesNoEmail%1,            Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,             David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,             Hsien-Hao%Huang%NULL%1,             Wei-Fong%Kao%NULL%1,             Lee-Min%Wang%NULL%1,             Chun-I%Huang%NULL%1,             Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,             Robert H.%Yolken%NULL%1,             Patricia%Langenberg%NULL%1,             Manana%Lapidus%NULL%1,             Timothy A.%Arling%NULL%1,             Faith B.%Dickerson%NULL%1,             Debra A.%Scrandis%NULL%1,             Emily%Severance%NULL%1,             Johanna A.%Cabassa%NULL%1,             Theodora%Balis%NULL%1,             Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,             Mohamad Ali%Cheaito%NULL%1,             Rawad%El Hayek%NULL%1,             Marwa%Nofal%NULL%1,             Sarah%El Halabi%NULL%1,             Kundadak Ganesh%Kudva%NULL%1,             Victor%Pereira-Sanchez%NULL%1,             Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,              Poonam%Chauhan%chauhan.poonamk@gmail.com%1,              Komal%Chhikara%dimpichhikara@gmail.com%1,              Parakriti%Gupta%parakritii@gmail.com%1,              Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,              Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,              Seema%Rani%NULL%1,              Shaheena%Parveen%NULL%1,              Ajay%Pal Singh%NULL%1,              Aseem%Mehra%NULL%1,              Subho%Chakrabarti%NULL%1,              Sandeep%Grover%NULL%1,              Cheering%Tandup%NULL%2,              Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,             Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,             US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,             WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,             WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,             Cheung%YT%coreGivesNoEmail%1,             Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,              David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,              Hsien-Hao%Huang%NULL%1,              Wei-Fong%Kao%NULL%1,              Lee-Min%Wang%NULL%1,              Chun-I%Huang%NULL%1,              Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,              Robert H.%Yolken%NULL%1,              Patricia%Langenberg%NULL%1,              Manana%Lapidus%NULL%1,              Timothy A.%Arling%NULL%1,              Faith B.%Dickerson%NULL%1,              Debra A.%Scrandis%NULL%1,              Emily%Severance%NULL%1,              Johanna A.%Cabassa%NULL%1,              Theodora%Balis%NULL%1,              Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,              Mohamad Ali%Cheaito%NULL%1,              Rawad%El Hayek%NULL%1,              Marwa%Nofal%NULL%1,              Sarah%El Halabi%NULL%1,              Kundadak Ganesh%Kudva%NULL%1,              Victor%Pereira-Sanchez%NULL%1,              Samer%El Hayek%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -869,7 +917,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -898,7 +946,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -927,7 +975,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -956,7 +1004,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -985,7 +1033,7 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1014,7 +1062,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -1072,7 +1120,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
@@ -1101,7 +1149,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>

--- a/Covid_19_Dataset_and_References/References/50.xlsx
+++ b/Covid_19_Dataset_and_References/References/50.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="172">
   <si>
     <t>Doi</t>
   </si>
@@ -559,6 +559,30 @@
   </si>
   <si>
     <t>[Karine%Kahil%NULL%1,              Mohamad Ali%Cheaito%NULL%1,              Rawad%El Hayek%NULL%1,              Marwa%Nofal%NULL%1,              Sarah%El Halabi%NULL%1,              Kundadak Ganesh%Kudva%NULL%1,              Victor%Pereira-Sanchez%NULL%1,              Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,               Poonam%Chauhan%chauhan.poonamk@gmail.com%1,               Komal%Chhikara%dimpichhikara@gmail.com%1,               Parakriti%Gupta%parakritii@gmail.com%1,               Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,               Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,               Seema%Rani%NULL%1,               Shaheena%Parveen%NULL%1,               Ajay%Pal Singh%NULL%1,               Aseem%Mehra%NULL%1,               Subho%Chakrabarti%NULL%1,               Sandeep%Grover%NULL%1,               Cheering%Tandup%NULL%2,               Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,              Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,              US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,              WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,              WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,              Cheung%YT%coreGivesNoEmail%1,              Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,               David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,               Hsien-Hao%Huang%NULL%1,               Wei-Fong%Kao%NULL%1,               Lee-Min%Wang%NULL%1,               Chun-I%Huang%NULL%1,               Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,               Robert H.%Yolken%NULL%1,               Patricia%Langenberg%NULL%1,               Manana%Lapidus%NULL%1,               Timothy A.%Arling%NULL%1,               Faith B.%Dickerson%NULL%1,               Debra A.%Scrandis%NULL%1,               Emily%Severance%NULL%1,               Johanna A.%Cabassa%NULL%1,               Theodora%Balis%NULL%1,               Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,               Mohamad Ali%Cheaito%NULL%1,               Rawad%El Hayek%NULL%1,               Marwa%Nofal%NULL%1,               Sarah%El Halabi%NULL%1,               Kundadak Ganesh%Kudva%NULL%1,               Victor%Pereira-Sanchez%NULL%1,               Samer%El Hayek%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -917,7 +941,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -946,7 +970,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -975,7 +999,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1004,7 +1028,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1033,7 +1057,7 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1062,7 +1086,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -1120,7 +1144,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
@@ -1149,7 +1173,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>

--- a/Covid_19_Dataset_and_References/References/50.xlsx
+++ b/Covid_19_Dataset_and_References/References/50.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="180">
   <si>
     <t>Doi</t>
   </si>
@@ -583,6 +583,30 @@
   </si>
   <si>
     <t>[Karine%Kahil%NULL%1,               Mohamad Ali%Cheaito%NULL%1,               Rawad%El Hayek%NULL%1,               Marwa%Nofal%NULL%1,               Sarah%El Halabi%NULL%1,               Kundadak Ganesh%Kudva%NULL%1,               Victor%Pereira-Sanchez%NULL%1,               Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,                Poonam%Chauhan%chauhan.poonamk@gmail.com%1,                Komal%Chhikara%dimpichhikara@gmail.com%1,                Parakriti%Gupta%parakritii@gmail.com%1,                Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,                Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,                Seema%Rani%NULL%1,                Shaheena%Parveen%NULL%1,                Ajay%Pal Singh%NULL%1,                Aseem%Mehra%NULL%1,                Subho%Chakrabarti%NULL%1,                Sandeep%Grover%NULL%1,                Cheering%Tandup%NULL%2,                Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,               Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,               US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,               WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,               WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,               Cheung%YT%coreGivesNoEmail%1,               Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,                David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,                Hsien-Hao%Huang%NULL%1,                Wei-Fong%Kao%NULL%1,                Lee-Min%Wang%NULL%1,                Chun-I%Huang%NULL%1,                Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,                Robert H.%Yolken%NULL%1,                Patricia%Langenberg%NULL%1,                Manana%Lapidus%NULL%1,                Timothy A.%Arling%NULL%1,                Faith B.%Dickerson%NULL%1,                Debra A.%Scrandis%NULL%1,                Emily%Severance%NULL%1,                Johanna A.%Cabassa%NULL%1,                Theodora%Balis%NULL%1,                Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,                Mohamad Ali%Cheaito%NULL%1,                Rawad%El Hayek%NULL%1,                Marwa%Nofal%NULL%1,                Sarah%El Halabi%NULL%1,                Kundadak Ganesh%Kudva%NULL%1,                Victor%Pereira-Sanchez%NULL%1,                Samer%El Hayek%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -941,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -970,7 +994,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -999,7 +1023,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1028,7 +1052,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1057,7 +1081,7 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1086,7 +1110,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -1144,7 +1168,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
@@ -1173,7 +1197,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>

--- a/Covid_19_Dataset_and_References/References/50.xlsx
+++ b/Covid_19_Dataset_and_References/References/50.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="196">
   <si>
     <t>Doi</t>
   </si>
@@ -607,6 +607,54 @@
   </si>
   <si>
     <t>[Karine%Kahil%NULL%1,                Mohamad Ali%Cheaito%NULL%1,                Rawad%El Hayek%NULL%1,                Marwa%Nofal%NULL%1,                Sarah%El Halabi%NULL%1,                Kundadak Ganesh%Kudva%NULL%1,                Victor%Pereira-Sanchez%NULL%1,                Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,                 Poonam%Chauhan%chauhan.poonamk@gmail.com%1,                 Komal%Chhikara%dimpichhikara@gmail.com%1,                 Parakriti%Gupta%parakritii@gmail.com%1,                 Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,                 Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,                 Seema%Rani%NULL%1,                 Shaheena%Parveen%NULL%1,                 Ajay%Pal Singh%NULL%1,                 Aseem%Mehra%NULL%1,                 Subho%Chakrabarti%NULL%1,                 Sandeep%Grover%NULL%1,                 Cheering%Tandup%NULL%2,                 Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,                Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,                US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,                WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,                WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,                Cheung%YT%coreGivesNoEmail%1,                Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,                 David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,                 Hsien-Hao%Huang%NULL%1,                 Wei-Fong%Kao%NULL%1,                 Lee-Min%Wang%NULL%1,                 Chun-I%Huang%NULL%1,                 Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,                 Robert H.%Yolken%NULL%1,                 Patricia%Langenberg%NULL%1,                 Manana%Lapidus%NULL%1,                 Timothy A.%Arling%NULL%1,                 Faith B.%Dickerson%NULL%1,                 Debra A.%Scrandis%NULL%1,                 Emily%Severance%NULL%1,                 Johanna A.%Cabassa%NULL%1,                 Theodora%Balis%NULL%1,                 Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,                 Mohamad Ali%Cheaito%NULL%1,                 Rawad%El Hayek%NULL%1,                 Marwa%Nofal%NULL%1,                 Sarah%El Halabi%NULL%1,                 Kundadak Ganesh%Kudva%NULL%1,                 Victor%Pereira-Sanchez%NULL%1,                 Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,                  Poonam%Chauhan%chauhan.poonamk@gmail.com%1,                  Komal%Chhikara%dimpichhikara@gmail.com%1,                  Parakriti%Gupta%parakritii@gmail.com%1,                  Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,                  Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,                  Seema%Rani%NULL%1,                  Shaheena%Parveen%NULL%1,                  Ajay%Pal Singh%NULL%1,                  Aseem%Mehra%NULL%1,                  Subho%Chakrabarti%NULL%1,                  Sandeep%Grover%NULL%1,                  Cheering%Tandup%NULL%2,                  Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,                 Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,                 US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,                 WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,                 WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,                 Cheung%YT%coreGivesNoEmail%1,                 Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,                  David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,                  Hsien-Hao%Huang%NULL%1,                  Wei-Fong%Kao%NULL%1,                  Lee-Min%Wang%NULL%1,                  Chun-I%Huang%NULL%1,                  Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,                  Robert H.%Yolken%NULL%1,                  Patricia%Langenberg%NULL%1,                  Manana%Lapidus%NULL%1,                  Timothy A.%Arling%NULL%1,                  Faith B.%Dickerson%NULL%1,                  Debra A.%Scrandis%NULL%1,                  Emily%Severance%NULL%1,                  Johanna A.%Cabassa%NULL%1,                  Theodora%Balis%NULL%1,                  Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,                  Mohamad Ali%Cheaito%NULL%1,                  Rawad%El Hayek%NULL%1,                  Marwa%Nofal%NULL%1,                  Sarah%El Halabi%NULL%1,                  Kundadak Ganesh%Kudva%NULL%1,                  Victor%Pereira-Sanchez%NULL%1,                  Samer%El Hayek%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -965,7 +1013,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -994,7 +1042,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -1023,7 +1071,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1052,7 +1100,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1081,7 +1129,7 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1110,7 +1158,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -1168,7 +1216,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
@@ -1197,7 +1245,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>

--- a/Covid_19_Dataset_and_References/References/50.xlsx
+++ b/Covid_19_Dataset_and_References/References/50.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="204">
   <si>
     <t>Doi</t>
   </si>
@@ -655,6 +655,30 @@
   </si>
   <si>
     <t>[Karine%Kahil%NULL%1,                  Mohamad Ali%Cheaito%NULL%1,                  Rawad%El Hayek%NULL%1,                  Marwa%Nofal%NULL%1,                  Sarah%El Halabi%NULL%1,                  Kundadak Ganesh%Kudva%NULL%1,                  Victor%Pereira-Sanchez%NULL%1,                  Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,                   Poonam%Chauhan%chauhan.poonamk@gmail.com%1,                   Komal%Chhikara%dimpichhikara@gmail.com%1,                   Parakriti%Gupta%parakritii@gmail.com%1,                   Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,                   Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,                   Seema%Rani%NULL%1,                   Shaheena%Parveen%NULL%1,                   Ajay%Pal Singh%NULL%1,                   Aseem%Mehra%NULL%1,                   Subho%Chakrabarti%NULL%1,                   Sandeep%Grover%NULL%1,                   Cheering%Tandup%NULL%2,                   Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,                  Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,                  US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,                  WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,                  WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,                  Cheung%YT%coreGivesNoEmail%1,                  Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,                   David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,                   Hsien-Hao%Huang%NULL%1,                   Wei-Fong%Kao%NULL%1,                   Lee-Min%Wang%NULL%1,                   Chun-I%Huang%NULL%1,                   Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,                   Robert H.%Yolken%NULL%1,                   Patricia%Langenberg%NULL%1,                   Manana%Lapidus%NULL%1,                   Timothy A.%Arling%NULL%1,                   Faith B.%Dickerson%NULL%1,                   Debra A.%Scrandis%NULL%1,                   Emily%Severance%NULL%1,                   Johanna A.%Cabassa%NULL%1,                   Theodora%Balis%NULL%1,                   Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,                   Mohamad Ali%Cheaito%NULL%1,                   Rawad%El Hayek%NULL%1,                   Marwa%Nofal%NULL%1,                   Sarah%El Halabi%NULL%1,                   Kundadak Ganesh%Kudva%NULL%1,                   Victor%Pereira-Sanchez%NULL%1,                   Samer%El Hayek%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1037,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1042,7 +1066,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -1071,7 +1095,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1100,7 +1124,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1129,7 +1153,7 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1158,7 +1182,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -1216,7 +1240,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
@@ -1245,7 +1269,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>

--- a/Covid_19_Dataset_and_References/References/50.xlsx
+++ b/Covid_19_Dataset_and_References/References/50.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="214">
   <si>
     <t>Doi</t>
   </si>
@@ -679,6 +679,36 @@
   </si>
   <si>
     <t>[Karine%Kahil%NULL%1,                   Mohamad Ali%Cheaito%NULL%1,                   Rawad%El Hayek%NULL%1,                   Marwa%Nofal%NULL%1,                   Sarah%El Halabi%NULL%1,                   Kundadak Ganesh%Kudva%NULL%1,                   Victor%Pereira-Sanchez%NULL%1,                   Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,                    Poonam%Chauhan%chauhan.poonamk@gmail.com%1,                    Komal%Chhikara%dimpichhikara@gmail.com%1,                    Parakriti%Gupta%parakritii@gmail.com%1,                    Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,                    Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,                    Seema%Rani%NULL%1,                    Shaheena%Parveen%NULL%1,                    Ajay%Pal Singh%NULL%1,                    Aseem%Mehra%NULL%1,                    Subho%Chakrabarti%NULL%1,                    Sandeep%Grover%NULL%1,                    Cheering%Tandup%NULL%2,                    Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,                   Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,                   US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,                   WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,                   WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,                   Cheung%YT%coreGivesNoEmail%1,                   Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,                    David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,                    Hsien-Hao%Huang%NULL%1,                    Wei-Fong%Kao%NULL%1,                    Lee-Min%Wang%NULL%1,                    Chun-I%Huang%NULL%1,                    Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,                    Robert H.%Yolken%NULL%1,                    Patricia%Langenberg%NULL%1,                    Manana%Lapidus%NULL%1,                    Timothy A.%Arling%NULL%1,                    Faith B.%Dickerson%NULL%1,                    Debra A.%Scrandis%NULL%1,                    Emily%Severance%NULL%1,                    Johanna A.%Cabassa%NULL%1,                    Theodora%Balis%NULL%1,                    Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,                    Mohamad Ali%Cheaito%NULL%1,                    Rawad%El Hayek%NULL%1,                    Marwa%Nofal%NULL%1,                    Sarah%El Halabi%NULL%1,                    Kundadak Ganesh%Kudva%NULL%1,                    Victor%Pereira-Sanchez%NULL%1,                    Samer%El Hayek%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1067,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1049,7 +1079,7 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
@@ -1066,7 +1096,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -1078,7 +1108,7 @@
         <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4">
@@ -1095,7 +1125,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1107,7 +1137,7 @@
         <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5">
@@ -1124,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1136,7 +1166,7 @@
         <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6">
@@ -1153,7 +1183,7 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1165,7 +1195,7 @@
         <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7">
@@ -1182,7 +1212,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -1194,7 +1224,7 @@
         <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8">
@@ -1223,7 +1253,7 @@
         <v>121</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9">
@@ -1240,7 +1270,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
@@ -1252,7 +1282,7 @@
         <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10">
@@ -1269,7 +1299,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>
@@ -1281,7 +1311,7 @@
         <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/50.xlsx
+++ b/Covid_19_Dataset_and_References/References/50.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="222">
   <si>
     <t>Doi</t>
   </si>
@@ -709,6 +709,30 @@
   </si>
   <si>
     <t>[Karine%Kahil%NULL%1,                    Mohamad Ali%Cheaito%NULL%1,                    Rawad%El Hayek%NULL%1,                    Marwa%Nofal%NULL%1,                    Sarah%El Halabi%NULL%1,                    Kundadak Ganesh%Kudva%NULL%1,                    Victor%Pereira-Sanchez%NULL%1,                    Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,                     Poonam%Chauhan%chauhan.poonamk@gmail.com%1,                     Komal%Chhikara%dimpichhikara@gmail.com%1,                     Parakriti%Gupta%parakritii@gmail.com%1,                     Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,                     Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,                     Seema%Rani%NULL%1,                     Shaheena%Parveen%NULL%1,                     Ajay%Pal Singh%NULL%1,                     Aseem%Mehra%NULL%1,                     Subho%Chakrabarti%NULL%1,                     Sandeep%Grover%NULL%1,                     Cheering%Tandup%NULL%2,                     Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,                    Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,                    US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,                    WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,                    WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,                    Cheung%YT%coreGivesNoEmail%1,                    Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,                     David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,                     Hsien-Hao%Huang%NULL%1,                     Wei-Fong%Kao%NULL%1,                     Lee-Min%Wang%NULL%1,                     Chun-I%Huang%NULL%1,                     Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,                     Robert H.%Yolken%NULL%1,                     Patricia%Langenberg%NULL%1,                     Manana%Lapidus%NULL%1,                     Timothy A.%Arling%NULL%1,                     Faith B.%Dickerson%NULL%1,                     Debra A.%Scrandis%NULL%1,                     Emily%Severance%NULL%1,                     Johanna A.%Cabassa%NULL%1,                     Theodora%Balis%NULL%1,                     Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,                     Mohamad Ali%Cheaito%NULL%1,                     Rawad%El Hayek%NULL%1,                     Marwa%Nofal%NULL%1,                     Sarah%El Halabi%NULL%1,                     Kundadak Ganesh%Kudva%NULL%1,                     Victor%Pereira-Sanchez%NULL%1,                     Samer%El Hayek%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1091,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1096,7 +1120,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -1125,7 +1149,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1154,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1183,7 +1207,7 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1212,7 +1236,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -1270,7 +1294,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
@@ -1299,7 +1323,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>

--- a/Covid_19_Dataset_and_References/References/50.xlsx
+++ b/Covid_19_Dataset_and_References/References/50.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="266">
   <si>
     <t>Doi</t>
   </si>
@@ -733,6 +733,138 @@
   </si>
   <si>
     <t>[Karine%Kahil%NULL%1,                     Mohamad Ali%Cheaito%NULL%1,                     Rawad%El Hayek%NULL%1,                     Marwa%Nofal%NULL%1,                     Sarah%El Halabi%NULL%1,                     Kundadak Ganesh%Kudva%NULL%1,                     Victor%Pereira-Sanchez%NULL%1,                     Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,                      Poonam%Chauhan%chauhan.poonamk@gmail.com%1,                      Komal%Chhikara%dimpichhikara@gmail.com%1,                      Parakriti%Gupta%parakritii@gmail.com%1,                      Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,                      Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,                      Seema%Rani%NULL%1,                      Shaheena%Parveen%NULL%1,                      Ajay%Pal Singh%NULL%1,                      Aseem%Mehra%NULL%1,                      Subho%Chakrabarti%NULL%1,                      Sandeep%Grover%NULL%1,                      Cheering%Tandup%NULL%2,                      Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,                     Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,                     US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,                     WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,                     WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,                     Cheung%YT%coreGivesNoEmail%1,                     Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,                      David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,                      Hsien-Hao%Huang%NULL%1,                      Wei-Fong%Kao%NULL%1,                      Lee-Min%Wang%NULL%1,                      Chun-I%Huang%NULL%1,                      Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sherman A.%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Informa UK Limited</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,                      Robert H.%Yolken%NULL%1,                      Patricia%Langenberg%NULL%1,                      Manana%Lapidus%NULL%1,                      Timothy A.%Arling%NULL%1,                      Faith B.%Dickerson%NULL%1,                      Debra A.%Scrandis%NULL%1,                      Emily%Severance%NULL%1,                      Johanna A.%Cabassa%NULL%1,                      Theodora%Balis%NULL%1,                      Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,                      Mohamad Ali%Cheaito%NULL%1,                      Rawad%El Hayek%NULL%1,                      Marwa%Nofal%NULL%1,                      Sarah%El Halabi%NULL%1,                      Kundadak Ganesh%Kudva%NULL%1,                      Victor%Pereira-Sanchez%NULL%1,                      Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,                       Poonam%Chauhan%chauhan.poonamk@gmail.com%1,                       Komal%Chhikara%dimpichhikara@gmail.com%1,                       Parakriti%Gupta%parakritii@gmail.com%1,                       Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,                       Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,                       Seema%Rani%NULL%1,                       Shaheena%Parveen%NULL%1,                       Ajay%Pal Singh%NULL%1,                       Aseem%Mehra%NULL%1,                       Subho%Chakrabarti%NULL%1,                       Sandeep%Grover%NULL%1,                       Cheering%Tandup%NULL%2,                       Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,                      Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,                      US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,                      WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,                      WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,                      Cheung%YT%coreGivesNoEmail%1,                      Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,                       David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,                       Hsien-Hao%Huang%NULL%1,                       Wei-Fong%Kao%NULL%1,                       Lee-Min%Wang%NULL%1,                       Chun-I%Huang%NULL%1,                       Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,                       Robert H.%Yolken%NULL%1,                       Patricia%Langenberg%NULL%1,                       Manana%Lapidus%NULL%1,                       Timothy A.%Arling%NULL%1,                       Faith B.%Dickerson%NULL%1,                       Debra A.%Scrandis%NULL%1,                       Emily%Severance%NULL%1,                       Johanna A.%Cabassa%NULL%1,                       Theodora%Balis%NULL%1,                       Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,                       Mohamad Ali%Cheaito%NULL%1,                       Rawad%El Hayek%NULL%1,                       Marwa%Nofal%NULL%1,                       Sarah%El Halabi%NULL%1,                       Kundadak Ganesh%Kudva%NULL%1,                       Victor%Pereira-Sanchez%NULL%1,                       Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,                        Poonam%Chauhan%chauhan.poonamk@gmail.com%1,                        Komal%Chhikara%dimpichhikara@gmail.com%1,                        Parakriti%Gupta%parakritii@gmail.com%1,                        Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,                        Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,                        Seema%Rani%NULL%1,                        Shaheena%Parveen%NULL%1,                        Ajay%Pal Singh%NULL%1,                        Aseem%Mehra%NULL%1,                        Subho%Chakrabarti%NULL%1,                        Sandeep%Grover%NULL%1,                        Cheering%Tandup%NULL%2,                        Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,                       Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,                       US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,                       WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,                       WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,                       Cheung%YT%coreGivesNoEmail%1,                       Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,                        David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,                        Hsien-Hao%Huang%NULL%1,                        Wei-Fong%Kao%NULL%1,                        Lee-Min%Wang%NULL%1,                        Chun-I%Huang%NULL%1,                        Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,                        Robert H.%Yolken%NULL%1,                        Patricia%Langenberg%NULL%1,                        Manana%Lapidus%NULL%1,                        Timothy A.%Arling%NULL%1,                        Faith B.%Dickerson%NULL%1,                        Debra A.%Scrandis%NULL%1,                        Emily%Severance%NULL%1,                        Johanna A.%Cabassa%NULL%1,                        Theodora%Balis%NULL%1,                        Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,                        Mohamad Ali%Cheaito%NULL%1,                        Rawad%El Hayek%NULL%1,                        Marwa%Nofal%NULL%1,                        Sarah%El Halabi%NULL%1,                        Kundadak Ganesh%Kudva%NULL%1,                        Victor%Pereira-Sanchez%NULL%1,                        Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,                         Poonam%Chauhan%chauhan.poonamk@gmail.com%1,                         Komal%Chhikara%dimpichhikara@gmail.com%1,                         Parakriti%Gupta%parakritii@gmail.com%1,                         Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,                         Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,                         Seema%Rani%NULL%1,                         Shaheena%Parveen%NULL%1,                         Ajay%Pal Singh%NULL%1,                         Aseem%Mehra%NULL%1,                         Subho%Chakrabarti%NULL%1,                         Sandeep%Grover%NULL%1,                         Cheering%Tandup%NULL%2,                         Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,                        Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,                        US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,                        WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,                        WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,                        Cheung%YT%coreGivesNoEmail%1,                        Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,                         David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,                         Hsien-Hao%Huang%NULL%1,                         Wei-Fong%Kao%NULL%1,                         Lee-Min%Wang%NULL%1,                         Chun-I%Huang%NULL%1,                         Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,                         Robert H.%Yolken%NULL%1,                         Patricia%Langenberg%NULL%1,                         Manana%Lapidus%NULL%1,                         Timothy A.%Arling%NULL%1,                         Faith B.%Dickerson%NULL%1,                         Debra A.%Scrandis%NULL%1,                         Emily%Severance%NULL%1,                         Johanna A.%Cabassa%NULL%1,                         Theodora%Balis%NULL%1,                         Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,                         Mohamad Ali%Cheaito%NULL%1,                         Rawad%El Hayek%NULL%1,                         Marwa%Nofal%NULL%1,                         Sarah%El Halabi%NULL%1,                         Kundadak Ganesh%Kudva%NULL%1,                         Victor%Pereira-Sanchez%NULL%1,                         Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,                          Poonam%Chauhan%chauhan.poonamk@gmail.com%1,                          Komal%Chhikara%dimpichhikara@gmail.com%1,                          Parakriti%Gupta%parakritii@gmail.com%1,                          Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,                          Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,                          Seema%Rani%NULL%1,                          Shaheena%Parveen%NULL%1,                          Ajay%Pal Singh%NULL%1,                          Aseem%Mehra%NULL%1,                          Subho%Chakrabarti%NULL%1,                          Sandeep%Grover%NULL%1,                          Cheering%Tandup%NULL%2,                          Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,                         Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,                         US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,                         WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,                         WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,                         Cheung%YT%coreGivesNoEmail%1,                         Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,                          David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,                          Hsien-Hao%Huang%NULL%1,                          Wei-Fong%Kao%NULL%1,                          Lee-Min%Wang%NULL%1,                          Chun-I%Huang%NULL%1,                          Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,                          Robert H.%Yolken%NULL%1,                          Patricia%Langenberg%NULL%1,                          Manana%Lapidus%NULL%1,                          Timothy A.%Arling%NULL%1,                          Faith B.%Dickerson%NULL%1,                          Debra A.%Scrandis%NULL%1,                          Emily%Severance%NULL%1,                          Johanna A.%Cabassa%NULL%1,                          Theodora%Balis%NULL%1,                          Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,                          Mohamad Ali%Cheaito%NULL%1,                          Rawad%El Hayek%NULL%1,                          Marwa%Nofal%NULL%1,                          Sarah%El Halabi%NULL%1,                          Kundadak Ganesh%Kudva%NULL%1,                          Victor%Pereira-Sanchez%NULL%1,                          Samer%El Hayek%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1076,6 +1208,9 @@
       <c r="I1" t="s">
         <v>62</v>
       </c>
+      <c r="J1" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1091,7 +1226,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1104,6 +1239,9 @@
       </c>
       <c r="I2" t="s">
         <v>205</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -1120,7 +1258,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -1133,6 +1271,9 @@
       </c>
       <c r="I3" t="s">
         <v>205</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -1149,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1162,6 +1303,9 @@
       </c>
       <c r="I4" t="s">
         <v>205</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -1178,7 +1322,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1191,6 +1335,9 @@
       </c>
       <c r="I5" t="s">
         <v>209</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1354,7 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1220,6 +1367,9 @@
       </c>
       <c r="I6" t="s">
         <v>209</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -1236,7 +1386,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -1249,6 +1399,9 @@
       </c>
       <c r="I7" t="s">
         <v>205</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -1274,10 +1427,13 @@
         <v>120</v>
       </c>
       <c r="H8" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c r="I8" t="s">
-        <v>209</v>
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1450,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
@@ -1307,6 +1463,9 @@
       </c>
       <c r="I9" t="s">
         <v>205</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -1323,7 +1482,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>
@@ -1336,6 +1495,9 @@
       </c>
       <c r="I10" t="s">
         <v>205</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/50.xlsx
+++ b/Covid_19_Dataset_and_References/References/50.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="282">
   <si>
     <t>Doi</t>
   </si>
@@ -865,6 +865,54 @@
   </si>
   <si>
     <t>[Karine%Kahil%NULL%1,                          Mohamad Ali%Cheaito%NULL%1,                          Rawad%El Hayek%NULL%1,                          Marwa%Nofal%NULL%1,                          Sarah%El Halabi%NULL%1,                          Kundadak Ganesh%Kudva%NULL%1,                          Victor%Pereira-Sanchez%NULL%1,                          Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,                           Poonam%Chauhan%chauhan.poonamk@gmail.com%1,                           Komal%Chhikara%dimpichhikara@gmail.com%1,                           Parakriti%Gupta%parakritii@gmail.com%1,                           Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,                           Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,                           Seema%Rani%NULL%1,                           Shaheena%Parveen%NULL%1,                           Ajay%Pal Singh%NULL%1,                           Aseem%Mehra%NULL%1,                           Subho%Chakrabarti%NULL%1,                           Sandeep%Grover%NULL%1,                           Cheering%Tandup%NULL%2,                           Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,                          Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,                          US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,                          WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,                          WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,                          Cheung%YT%coreGivesNoEmail%1,                          Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,                           David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,                           Hsien-Hao%Huang%NULL%1,                           Wei-Fong%Kao%NULL%1,                           Lee-Min%Wang%NULL%1,                           Chun-I%Huang%NULL%1,                           Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,                           Robert H.%Yolken%NULL%1,                           Patricia%Langenberg%NULL%1,                           Manana%Lapidus%NULL%1,                           Timothy A.%Arling%NULL%1,                           Faith B.%Dickerson%NULL%1,                           Debra A.%Scrandis%NULL%1,                           Emily%Severance%NULL%1,                           Johanna A.%Cabassa%NULL%1,                           Theodora%Balis%NULL%1,                           Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,                           Mohamad Ali%Cheaito%NULL%1,                           Rawad%El Hayek%NULL%1,                           Marwa%Nofal%NULL%1,                           Sarah%El Halabi%NULL%1,                           Kundadak Ganesh%Kudva%NULL%1,                           Victor%Pereira-Sanchez%NULL%1,                           Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,                            Poonam%Chauhan%chauhan.poonamk@gmail.com%1,                            Komal%Chhikara%dimpichhikara@gmail.com%1,                            Parakriti%Gupta%parakritii@gmail.com%1,                            Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,                            Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,                            Seema%Rani%NULL%1,                            Shaheena%Parveen%NULL%1,                            Ajay%Pal Singh%NULL%1,                            Aseem%Mehra%NULL%1,                            Subho%Chakrabarti%NULL%1,                            Sandeep%Grover%NULL%1,                            Cheering%Tandup%NULL%2,                            Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Department%of Health%coreGivesNoEmail%1,                           Department%of Health of the Government of the Hong Kong Special Administrative Region%coreGivesNoEmail%1,                           US%Department of Health and Human Services\u2014Public Health Service%coreGivesNoEmail%1,                           WHO%European Ministerial Conference on Mental Health%coreGivesNoEmail%1,                           WHO%Website%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chau%PH%coreGivesNoEmail%1,                           Cheung%YT%coreGivesNoEmail%1,                           Yip%PSF%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,                            David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,                            Hsien-Hao%Huang%NULL%1,                            Wei-Fong%Kao%NULL%1,                            Lee-Min%Wang%NULL%1,                            Chun-I%Huang%NULL%1,                            Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,                            Robert H.%Yolken%NULL%1,                            Patricia%Langenberg%NULL%1,                            Manana%Lapidus%NULL%1,                            Timothy A.%Arling%NULL%1,                            Faith B.%Dickerson%NULL%1,                            Debra A.%Scrandis%NULL%1,                            Emily%Severance%NULL%1,                            Johanna A.%Cabassa%NULL%1,                            Theodora%Balis%NULL%1,                            Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%1,                            Mohamad Ali%Cheaito%NULL%1,                            Rawad%El Hayek%NULL%1,                            Marwa%Nofal%NULL%1,                            Sarah%El Halabi%NULL%1,                            Kundadak Ganesh%Kudva%NULL%1,                            Victor%Pereira-Sanchez%NULL%1,                            Samer%El Hayek%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1274,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1258,7 +1306,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -1290,7 +1338,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1322,7 +1370,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1354,7 +1402,7 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1386,7 +1434,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -1450,7 +1498,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
@@ -1482,7 +1530,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>
